--- a/lecture-021/file.xlsx
+++ b/lecture-021/file.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,9 +523,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Manish Malhotra</v>
+      </c>
+      <c r="B8" t="str">
+        <v>28</v>
+      </c>
+      <c r="C8" t="str">
+        <v>5.8</v>
+      </c>
+      <c r="D8" t="str">
+        <v>65</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>